--- a/CashFlow/PAYX_cashflow.xlsx
+++ b/CashFlow/PAYX_cashflow.xlsx
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>285000000.0</v>
+        <v>149600000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>279000000.0</v>
+        <v>-5200000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>234100000.0</v>
+        <v>-20900000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>132500000.0</v>
+        <v>-4900000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>22600000.0</v>
+        <v>-57400000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>93200000.0</v>
